--- a/AAA-Luban-Excel/Datas/mon_Monster.xlsx
+++ b/AAA-Luban-Excel/Datas/mon_Monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,12 @@
     <t>warnRange</t>
   </si>
   <si>
+    <t>hitRange</t>
+  </si>
+  <si>
+    <t>shootRange</t>
+  </si>
+  <si>
     <t>inPeace</t>
   </si>
   <si>
@@ -110,6 +116,12 @@
     <t>警戒范围（m）</t>
   </si>
   <si>
+    <t>近战攻击范围(m)</t>
+  </si>
+  <si>
+    <t>远程攻击范围(m)</t>
+  </si>
+  <si>
     <t>闲置状态AI</t>
   </si>
   <si>
@@ -137,7 +149,13 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>8</t>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>1.5m</t>
+  </si>
+  <si>
+    <t>7.0m</t>
   </si>
   <si>
     <t>Empty</t>
@@ -159,6 +177,15 @@
   </si>
   <si>
     <t>1.5</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1125,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1114,13 +1141,13 @@
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="10" width="33.9083333333333" style="2" customWidth="1"/>
-    <col min="11" max="11" width="30" style="2" customWidth="1"/>
-    <col min="12" max="12" width="34.3416666666667" style="2" customWidth="1"/>
-    <col min="13" max="28" width="9" style="2"/>
+    <col min="10" max="12" width="33.9083333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30" style="2" customWidth="1"/>
+    <col min="14" max="14" width="34.3416666666667" style="2" customWidth="1"/>
+    <col min="15" max="30" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1157,189 +1184,225 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" ht="23" customHeight="1" spans="1:14">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:12">
+    <row r="5" ht="27" spans="1:14">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>400001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:12">
+    <row r="6" ht="27" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>400002</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>37</v>
+      <c r="M6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/AAA-Luban-Excel/Datas/mon_Monster.xlsx
+++ b/AAA-Luban-Excel/Datas/mon_Monster.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\unity_project\Project-A\AAA-Luban-Excel\Datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69CBB6B-1A53-451D-A27B-0C0E43E6A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,12 +158,6 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>1.5m</t>
-  </si>
-  <si>
-    <t>7.0m</t>
-  </si>
-  <si>
     <t>Empty</t>
   </si>
   <si>
@@ -186,19 +186,21 @@
   </si>
   <si>
     <t>-1</t>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,345 +209,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -553,255 +240,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -814,62 +259,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1119,35 +523,35 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:N10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="64.5583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="12" width="33.9083333333333" style="2" customWidth="1"/>
+    <col min="10" max="12" width="33.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="30" style="2" customWidth="1"/>
-    <col min="14" max="14" width="34.3416666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="34.375" style="2" customWidth="1"/>
     <col min="15" max="30" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -1235,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +681,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" ht="23" customHeight="1" spans="1:14">
+    <row r="4" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1321,7 +725,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:14">
+    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>400001</v>
@@ -1347,86 +751,86 @@
       <c r="I5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M5" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:14">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>400002</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="L6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1434,8 +838,8 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/mon_Monster.xlsx
+++ b/AAA-Luban-Excel/Datas/mon_Monster.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\unity_project\Project-A\AAA-Luban-Excel\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69CBB6B-1A53-451D-A27B-0C0E43E6A04B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>##var</t>
   </si>
@@ -68,15 +62,6 @@
     <t>shootRange</t>
   </si>
   <si>
-    <t>inPeace</t>
-  </si>
-  <si>
-    <t>toBattle</t>
-  </si>
-  <si>
-    <t>inBattle</t>
-  </si>
-  <si>
     <t>##type</t>
   </si>
   <si>
@@ -128,15 +113,6 @@
     <t>远程攻击范围(m)</t>
   </si>
   <si>
-    <t>闲置状态AI</t>
-  </si>
-  <si>
-    <t>入战逻辑</t>
-  </si>
-  <si>
-    <t>战斗状态AI</t>
-  </si>
-  <si>
     <t>溺亡者</t>
   </si>
   <si>
@@ -158,7 +134,10 @@
     <t>8.0</t>
   </si>
   <si>
-    <t>Empty</t>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>7.0</t>
   </si>
   <si>
     <t>猎犬</t>
@@ -176,31 +155,26 @@
     <t>49</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>100.0</t>
+    <t>15.0</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
     <t>-1</t>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,30 +183,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -240,9 +536,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -259,21 +797,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -523,19 +1105,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="23.375" style="1" customWidth="1"/>
@@ -545,13 +1127,11 @@
     <col min="7" max="7" width="20.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="20.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="22" style="2" customWidth="1"/>
-    <col min="10" max="12" width="33.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="30" style="2" customWidth="1"/>
-    <col min="14" max="14" width="34.375" style="2" customWidth="1"/>
-    <col min="15" max="30" width="9" style="2"/>
+    <col min="10" max="11" width="33.875" style="2" customWidth="1"/>
+    <col min="12" max="27" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,252 +1165,198 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="23.1" customHeight="1" spans="1:11">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>19</v>
+      <c r="D4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="23.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" ht="27" spans="1:11">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>400001</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" ht="27" spans="1:11">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>400002</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -838,8 +1364,8 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/AAA-Luban-Excel/Datas/mon_Monster.xlsx
+++ b/AAA-Luban-Excel/Datas/mon_Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="21000" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -62,6 +62,9 @@
     <t>shootRange</t>
   </si>
   <si>
+    <t>hitDegree</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -113,6 +116,9 @@
     <t>远程攻击范围(m)</t>
   </si>
   <si>
+    <t>近战角度</t>
+  </si>
+  <si>
     <t>溺亡者</t>
   </si>
   <si>
@@ -138,6 +144,9 @@
   </si>
   <si>
     <t>7.0</t>
+  </si>
+  <si>
+    <t>90</t>
   </si>
   <si>
     <t>猎犬</t>
@@ -174,14 +183,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -654,133 +656,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -797,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,10 +1113,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1128,10 +1130,11 @@
     <col min="8" max="8" width="20.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="22" style="2" customWidth="1"/>
     <col min="10" max="11" width="33.875" style="2" customWidth="1"/>
-    <col min="12" max="27" width="9" style="2"/>
+    <col min="12" max="13" width="19.6666666666667" style="2" customWidth="1"/>
+    <col min="14" max="28" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1165,174 +1168,192 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" ht="23.1" customHeight="1" spans="1:11">
+    <row r="4" ht="23.1" customHeight="1" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:11">
+    <row r="5" ht="27" spans="1:12">
       <c r="A5" s="3"/>
       <c r="B5" s="3">
         <v>400001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="6" ht="27" spans="1:11">
+    <row r="6" ht="27" spans="1:12">
       <c r="A6" s="3"/>
       <c r="B6" s="3">
         <v>400002</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/AAA-Luban-Excel/Datas/mon_Monster.xlsx
+++ b/AAA-Luban-Excel/Datas/mon_Monster.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8880"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1115,8 +1115,8 @@
   <sheetPr/>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/AAA-Luban-Excel/Datas/mon_Monster.xlsx
+++ b/AAA-Luban-Excel/Datas/mon_Monster.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>##var</t>
   </si>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1214,7 +1214,9 @@
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
